--- a/Holiday Recommendations/config.xlsx
+++ b/Holiday Recommendations/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{A257DA8A-4D46-4AAB-89C7-73A30FAAF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F727182-A96B-4769-9250-B85A51B561C6}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{A257DA8A-4D46-4AAB-89C7-73A30FAAF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3E4589-2D91-407A-8735-665E585D4920}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -43,15 +43,9 @@
     <t>InputExcel</t>
   </si>
   <si>
-    <t>cities.xlsx</t>
-  </si>
-  <si>
     <t>OutputExcel</t>
   </si>
   <si>
-    <t>results.xlsx</t>
-  </si>
-  <si>
     <t>BookingUrl</t>
   </si>
   <si>
@@ -64,10 +58,28 @@
     <t>www.booking.com</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/</t>
+  </si>
+  <si>
+    <t>https://www.viator.com/</t>
+  </si>
+  <si>
     <t>https://tourscanner.com/</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/</t>
+    <t>ViatorUrl</t>
+  </si>
+  <si>
+    <t>GetYourGuideUrl</t>
+  </si>
+  <si>
+    <t>https://www.getyourguide.com/</t>
+  </si>
+  <si>
+    <t>cities_2.xlsx</t>
+  </si>
+  <si>
+    <t>results_2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -114,9 +126,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65EB6EF-2FBA-4521-AD43-AE7C86D8E3C3}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,7 +458,7 @@
     <col min="2" max="2" width="27.171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -460,52 +474,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F7593F43-F288-494C-8997-40D5E5C63932}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{6152BCFC-5F0B-449A-9E81-51DA6CAFC391}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{C9E0FDFA-ED2C-42A7-A468-E286D5591F8D}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{631463F5-F624-49D5-806F-1C86DAB7CCBF}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{631463F5-F624-49D5-806F-1C86DAB7CCBF}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E8D80FB6-5FAA-4C9F-AD88-C0BD845DF448}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{B08FC914-BD6A-49CD-8242-1B827B0B969C}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{8DF64344-43FB-4061-A994-6862C500F228}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
